--- a/assignment 3/output/part2_auto_encoders/4_layers.xlsx
+++ b/assignment 3/output/part2_auto_encoders/4_layers.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="9">
   <si>
     <t>hiddenSize1</t>
   </si>
@@ -60,7 +60,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -70,14 +70,18 @@
     </border>
     <border/>
     <border/>
+    <border/>
+    <border/>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -87,7 +91,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I25"/>
+  <dimension ref="A1:I33"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="10.5546875" customWidth="true"/>
@@ -102,31 +106,31 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" s="3" t="s">
         <v>8</v>
       </c>
     </row>
@@ -141,22 +145,22 @@
         <v>20</v>
       </c>
       <c r="D2">
-        <v>100</v>
+        <v>40</v>
       </c>
       <c r="E2">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="F2">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="G2">
-        <v>100</v>
+        <v>40</v>
       </c>
       <c r="H2">
-        <v>58.810384399999997</v>
+        <v>32.593934500000003</v>
       </c>
       <c r="I2">
-        <v>53.939999999999998</v>
+        <v>36.980000000000004</v>
       </c>
     </row>
     <row r="3">
@@ -170,22 +174,22 @@
         <v>20</v>
       </c>
       <c r="D3">
-        <v>100</v>
+        <v>40</v>
       </c>
       <c r="E3">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="F3">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="G3">
-        <v>100</v>
+        <v>40</v>
       </c>
       <c r="H3">
-        <v>61.661535899999997</v>
+        <v>38.910591099999998</v>
       </c>
       <c r="I3">
-        <v>54.939999999999998</v>
+        <v>42.020000000000003</v>
       </c>
     </row>
     <row r="4">
@@ -199,22 +203,22 @@
         <v>20</v>
       </c>
       <c r="D4">
-        <v>4</v>
+        <v>100</v>
       </c>
       <c r="E4">
-        <v>2</v>
+        <v>50</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>25</v>
       </c>
       <c r="G4">
-        <v>4</v>
+        <v>100</v>
       </c>
       <c r="H4">
-        <v>12.1856846</v>
+        <v>98.283408499999993</v>
       </c>
       <c r="I4">
-        <v>63.460000000000008</v>
+        <v>20.059999999999999</v>
       </c>
     </row>
     <row r="5">
@@ -228,22 +232,22 @@
         <v>20</v>
       </c>
       <c r="D5">
-        <v>4</v>
+        <v>100</v>
       </c>
       <c r="E5">
-        <v>2</v>
+        <v>50</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>25</v>
       </c>
       <c r="G5">
-        <v>4</v>
+        <v>100</v>
       </c>
       <c r="H5">
-        <v>14.0677039</v>
+        <v>82.7780451</v>
       </c>
       <c r="I5">
-        <v>58.780000000000001</v>
+        <v>30.300000000000004</v>
       </c>
     </row>
     <row r="6">
@@ -257,22 +261,22 @@
         <v>20</v>
       </c>
       <c r="D6">
-        <v>40</v>
+        <v>200</v>
       </c>
       <c r="E6">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="F6">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="G6">
-        <v>40</v>
+        <v>200</v>
       </c>
       <c r="H6">
-        <v>31.380390899999998</v>
+        <v>162.91758160000001</v>
       </c>
       <c r="I6">
-        <v>23.019999999999996</v>
+        <v>24.680000000000003</v>
       </c>
     </row>
     <row r="7">
@@ -286,22 +290,22 @@
         <v>20</v>
       </c>
       <c r="D7">
-        <v>40</v>
+        <v>200</v>
       </c>
       <c r="E7">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="F7">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="G7">
-        <v>40</v>
+        <v>200</v>
       </c>
       <c r="H7">
-        <v>28.536298599999999</v>
+        <v>83.231849800000006</v>
       </c>
       <c r="I7">
-        <v>54.600000000000001</v>
+        <v>20.840000000000003</v>
       </c>
     </row>
     <row r="8">
@@ -315,22 +319,22 @@
         <v>20</v>
       </c>
       <c r="D8">
-        <v>60</v>
+        <v>400</v>
       </c>
       <c r="E8">
-        <v>30</v>
+        <v>200</v>
       </c>
       <c r="F8">
-        <v>15</v>
+        <v>100</v>
       </c>
       <c r="G8">
-        <v>60</v>
+        <v>400</v>
       </c>
       <c r="H8">
-        <v>39.862828399999998</v>
+        <v>158.38768529999999</v>
       </c>
       <c r="I8">
-        <v>33.079999999999998</v>
+        <v>49.68</v>
       </c>
     </row>
     <row r="9">
@@ -344,22 +348,22 @@
         <v>20</v>
       </c>
       <c r="D9">
-        <v>60</v>
+        <v>400</v>
       </c>
       <c r="E9">
-        <v>30</v>
+        <v>200</v>
       </c>
       <c r="F9">
-        <v>15</v>
+        <v>100</v>
       </c>
       <c r="G9">
-        <v>60</v>
+        <v>400</v>
       </c>
       <c r="H9">
-        <v>49.683300899999999</v>
+        <v>155.85255609999999</v>
       </c>
       <c r="I9">
-        <v>45.340000000000003</v>
+        <v>38.5</v>
       </c>
     </row>
     <row r="10">
@@ -373,22 +377,22 @@
         <v>50</v>
       </c>
       <c r="D10">
-        <v>100</v>
+        <v>40</v>
       </c>
       <c r="E10">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="F10">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="G10">
-        <v>100</v>
+        <v>40</v>
       </c>
       <c r="H10">
-        <v>100.150312</v>
+        <v>30.306357999999999</v>
       </c>
       <c r="I10">
-        <v>87.879999999999995</v>
+        <v>38.800000000000004</v>
       </c>
     </row>
     <row r="11">
@@ -402,22 +406,22 @@
         <v>50</v>
       </c>
       <c r="D11">
-        <v>100</v>
+        <v>40</v>
       </c>
       <c r="E11">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="F11">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="G11">
-        <v>100</v>
+        <v>40</v>
       </c>
       <c r="H11">
-        <v>102.37138950000001</v>
+        <v>31.920892200000001</v>
       </c>
       <c r="I11">
-        <v>86.760000000000005</v>
+        <v>42.32</v>
       </c>
     </row>
     <row r="12">
@@ -431,22 +435,22 @@
         <v>50</v>
       </c>
       <c r="D12">
-        <v>4</v>
+        <v>100</v>
       </c>
       <c r="E12">
-        <v>2</v>
+        <v>50</v>
       </c>
       <c r="F12">
-        <v>1</v>
+        <v>25</v>
       </c>
       <c r="G12">
-        <v>4</v>
+        <v>100</v>
       </c>
       <c r="H12">
-        <v>22.0398955</v>
+        <v>69.900591599999998</v>
       </c>
       <c r="I12">
-        <v>17.879999999999995</v>
+        <v>27.080000000000005</v>
       </c>
     </row>
     <row r="13">
@@ -460,22 +464,22 @@
         <v>50</v>
       </c>
       <c r="D13">
-        <v>4</v>
+        <v>100</v>
       </c>
       <c r="E13">
-        <v>2</v>
+        <v>50</v>
       </c>
       <c r="F13">
-        <v>1</v>
+        <v>25</v>
       </c>
       <c r="G13">
-        <v>4</v>
+        <v>100</v>
       </c>
       <c r="H13">
-        <v>21.720517900000001</v>
+        <v>69.573480399999994</v>
       </c>
       <c r="I13">
-        <v>19.020000000000003</v>
+        <v>47.719999999999999</v>
       </c>
     </row>
     <row r="14">
@@ -489,22 +493,22 @@
         <v>50</v>
       </c>
       <c r="D14">
-        <v>40</v>
+        <v>200</v>
       </c>
       <c r="E14">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="F14">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="G14">
-        <v>40</v>
+        <v>200</v>
       </c>
       <c r="H14">
-        <v>47.611244300000003</v>
+        <v>130.99929650000001</v>
       </c>
       <c r="I14">
-        <v>81.560000000000002</v>
+        <v>88.38000000000001</v>
       </c>
     </row>
     <row r="15">
@@ -518,22 +522,22 @@
         <v>50</v>
       </c>
       <c r="D15">
-        <v>40</v>
+        <v>200</v>
       </c>
       <c r="E15">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="F15">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="G15">
-        <v>40</v>
+        <v>200</v>
       </c>
       <c r="H15">
-        <v>48.410122700000002</v>
+        <v>129.61382710000001</v>
       </c>
       <c r="I15">
-        <v>77.279999999999987</v>
+        <v>75.160000000000011</v>
       </c>
     </row>
     <row r="16">
@@ -547,22 +551,22 @@
         <v>50</v>
       </c>
       <c r="D16">
-        <v>60</v>
+        <v>400</v>
       </c>
       <c r="E16">
-        <v>30</v>
+        <v>200</v>
       </c>
       <c r="F16">
-        <v>15</v>
+        <v>100</v>
       </c>
       <c r="G16">
-        <v>60</v>
+        <v>400</v>
       </c>
       <c r="H16">
-        <v>64.273602299999993</v>
+        <v>245.23896160000001</v>
       </c>
       <c r="I16">
-        <v>60.68</v>
+        <v>75.039999999999992</v>
       </c>
     </row>
     <row r="17">
@@ -576,254 +580,486 @@
         <v>50</v>
       </c>
       <c r="D17">
-        <v>60</v>
+        <v>400</v>
       </c>
       <c r="E17">
-        <v>30</v>
+        <v>200</v>
       </c>
       <c r="F17">
-        <v>15</v>
+        <v>100</v>
       </c>
       <c r="G17">
-        <v>60</v>
+        <v>400</v>
       </c>
       <c r="H17">
-        <v>62.627908699999999</v>
+        <v>246.93927969999999</v>
       </c>
       <c r="I17">
-        <v>77.980000000000004</v>
+        <v>59.040000000000006</v>
       </c>
     </row>
     <row r="18">
       <c r="A18">
-        <v>200</v>
+        <v>150</v>
       </c>
       <c r="B18">
-        <v>150</v>
+        <v>100</v>
       </c>
       <c r="C18">
-        <v>100</v>
+        <v>75</v>
       </c>
       <c r="D18">
-        <v>100</v>
+        <v>40</v>
       </c>
       <c r="E18">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="F18">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="G18">
-        <v>100</v>
+        <v>40</v>
       </c>
       <c r="H18">
-        <v>241.8668734</v>
+        <v>41.504255899999997</v>
       </c>
       <c r="I18">
-        <v>99.799999999999997</v>
+        <v>50.859999999999992</v>
       </c>
     </row>
     <row r="19">
       <c r="A19">
-        <v>200</v>
+        <v>150</v>
       </c>
       <c r="B19">
-        <v>150</v>
+        <v>100</v>
       </c>
       <c r="C19">
-        <v>100</v>
+        <v>75</v>
       </c>
       <c r="D19">
-        <v>100</v>
+        <v>40</v>
       </c>
       <c r="E19">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="F19">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="G19">
-        <v>100</v>
+        <v>40</v>
       </c>
       <c r="H19">
-        <v>313.85651999999999</v>
+        <v>47.934429700000003</v>
       </c>
       <c r="I19">
-        <v>93.879999999999995</v>
+        <v>47.859999999999999</v>
       </c>
     </row>
     <row r="20">
       <c r="A20">
-        <v>200</v>
+        <v>150</v>
       </c>
       <c r="B20">
-        <v>150</v>
+        <v>100</v>
       </c>
       <c r="C20">
-        <v>100</v>
+        <v>75</v>
       </c>
       <c r="D20">
-        <v>4</v>
+        <v>100</v>
       </c>
       <c r="E20">
-        <v>2</v>
+        <v>50</v>
       </c>
       <c r="F20">
-        <v>1</v>
+        <v>25</v>
       </c>
       <c r="G20">
-        <v>4</v>
+        <v>100</v>
       </c>
       <c r="H20">
-        <v>83.087042100000005</v>
+        <v>99.012804500000001</v>
       </c>
       <c r="I20">
-        <v>21.16</v>
+        <v>58.660000000000004</v>
       </c>
     </row>
     <row r="21">
       <c r="A21">
-        <v>200</v>
+        <v>150</v>
       </c>
       <c r="B21">
-        <v>150</v>
+        <v>100</v>
       </c>
       <c r="C21">
-        <v>100</v>
+        <v>75</v>
       </c>
       <c r="D21">
-        <v>4</v>
+        <v>100</v>
       </c>
       <c r="E21">
-        <v>2</v>
+        <v>50</v>
       </c>
       <c r="F21">
-        <v>1</v>
+        <v>25</v>
       </c>
       <c r="G21">
-        <v>4</v>
+        <v>100</v>
       </c>
       <c r="H21">
-        <v>87.263503999999998</v>
+        <v>92.871198000000007</v>
       </c>
       <c r="I21">
-        <v>19.979999999999997</v>
+        <v>79.699999999999989</v>
       </c>
     </row>
     <row r="22">
       <c r="A22">
-        <v>200</v>
+        <v>150</v>
       </c>
       <c r="B22">
-        <v>150</v>
+        <v>100</v>
       </c>
       <c r="C22">
-        <v>100</v>
+        <v>75</v>
       </c>
       <c r="D22">
-        <v>40</v>
+        <v>200</v>
       </c>
       <c r="E22">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="F22">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="G22">
-        <v>40</v>
+        <v>200</v>
       </c>
       <c r="H22">
-        <v>182.1717261</v>
+        <v>179.58457709999999</v>
       </c>
       <c r="I22">
-        <v>19.479999999999997</v>
+        <v>98.359999999999999</v>
       </c>
     </row>
     <row r="23">
       <c r="A23">
-        <v>200</v>
+        <v>150</v>
       </c>
       <c r="B23">
-        <v>150</v>
+        <v>100</v>
       </c>
       <c r="C23">
-        <v>100</v>
+        <v>75</v>
       </c>
       <c r="D23">
-        <v>40</v>
+        <v>200</v>
       </c>
       <c r="E23">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="F23">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="G23">
-        <v>40</v>
+        <v>200</v>
       </c>
       <c r="H23">
-        <v>169.44041899999999</v>
+        <v>192.20701410000001</v>
       </c>
       <c r="I23">
-        <v>80</v>
+        <v>97.61999999999999</v>
       </c>
     </row>
     <row r="24">
       <c r="A24">
-        <v>200</v>
+        <v>150</v>
       </c>
       <c r="B24">
-        <v>150</v>
+        <v>100</v>
       </c>
       <c r="C24">
-        <v>100</v>
+        <v>75</v>
       </c>
       <c r="D24">
-        <v>60</v>
+        <v>400</v>
       </c>
       <c r="E24">
-        <v>30</v>
+        <v>200</v>
       </c>
       <c r="F24">
-        <v>15</v>
+        <v>100</v>
       </c>
       <c r="G24">
-        <v>60</v>
+        <v>400</v>
       </c>
       <c r="H24">
-        <v>632.09670219999998</v>
+        <v>394.05250369999999</v>
       </c>
       <c r="I24">
-        <v>93.159999999999997</v>
+        <v>93.280000000000001</v>
       </c>
     </row>
     <row r="25">
       <c r="A25">
-        <v>200</v>
+        <v>150</v>
       </c>
       <c r="B25">
-        <v>150</v>
+        <v>100</v>
       </c>
       <c r="C25">
-        <v>100</v>
+        <v>75</v>
       </c>
       <c r="D25">
-        <v>60</v>
+        <v>400</v>
       </c>
       <c r="E25">
-        <v>30</v>
+        <v>200</v>
       </c>
       <c r="F25">
-        <v>15</v>
+        <v>100</v>
       </c>
       <c r="G25">
-        <v>60</v>
+        <v>400</v>
       </c>
       <c r="H25">
-        <v>405.97699549999999</v>
+        <v>378.19858219999998</v>
       </c>
       <c r="I25">
-        <v>88.599999999999994</v>
+        <v>97.840000000000003</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26">
+        <v>200</v>
+      </c>
+      <c r="B26">
+        <v>150</v>
+      </c>
+      <c r="C26">
+        <v>100</v>
+      </c>
+      <c r="D26">
+        <v>40</v>
+      </c>
+      <c r="E26">
+        <v>20</v>
+      </c>
+      <c r="F26">
+        <v>10</v>
+      </c>
+      <c r="G26">
+        <v>40</v>
+      </c>
+      <c r="H26">
+        <v>62.572731300000001</v>
+      </c>
+      <c r="I26">
+        <v>42.379999999999995</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27">
+        <v>200</v>
+      </c>
+      <c r="B27">
+        <v>150</v>
+      </c>
+      <c r="C27">
+        <v>100</v>
+      </c>
+      <c r="D27">
+        <v>40</v>
+      </c>
+      <c r="E27">
+        <v>20</v>
+      </c>
+      <c r="F27">
+        <v>10</v>
+      </c>
+      <c r="G27">
+        <v>40</v>
+      </c>
+      <c r="H27">
+        <v>55.762767699999998</v>
+      </c>
+      <c r="I27">
+        <v>43.220000000000006</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28">
+        <v>200</v>
+      </c>
+      <c r="B28">
+        <v>150</v>
+      </c>
+      <c r="C28">
+        <v>100</v>
+      </c>
+      <c r="D28">
+        <v>100</v>
+      </c>
+      <c r="E28">
+        <v>50</v>
+      </c>
+      <c r="F28">
+        <v>25</v>
+      </c>
+      <c r="G28">
+        <v>100</v>
+      </c>
+      <c r="H28">
+        <v>122.6215692</v>
+      </c>
+      <c r="I28">
+        <v>60.399999999999999</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29">
+        <v>200</v>
+      </c>
+      <c r="B29">
+        <v>150</v>
+      </c>
+      <c r="C29">
+        <v>100</v>
+      </c>
+      <c r="D29">
+        <v>100</v>
+      </c>
+      <c r="E29">
+        <v>50</v>
+      </c>
+      <c r="F29">
+        <v>25</v>
+      </c>
+      <c r="G29">
+        <v>100</v>
+      </c>
+      <c r="H29">
+        <v>124.63632699999999</v>
+      </c>
+      <c r="I29">
+        <v>82.060000000000002</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30">
+        <v>200</v>
+      </c>
+      <c r="B30">
+        <v>150</v>
+      </c>
+      <c r="C30">
+        <v>100</v>
+      </c>
+      <c r="D30">
+        <v>200</v>
+      </c>
+      <c r="E30">
+        <v>100</v>
+      </c>
+      <c r="F30">
+        <v>50</v>
+      </c>
+      <c r="G30">
+        <v>200</v>
+      </c>
+      <c r="H30">
+        <v>245.01610880000001</v>
+      </c>
+      <c r="I30">
+        <v>98.640000000000001</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31">
+        <v>200</v>
+      </c>
+      <c r="B31">
+        <v>150</v>
+      </c>
+      <c r="C31">
+        <v>100</v>
+      </c>
+      <c r="D31">
+        <v>200</v>
+      </c>
+      <c r="E31">
+        <v>100</v>
+      </c>
+      <c r="F31">
+        <v>50</v>
+      </c>
+      <c r="G31">
+        <v>200</v>
+      </c>
+      <c r="H31">
+        <v>233.22539620000001</v>
+      </c>
+      <c r="I31">
+        <v>96.099999999999994</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32">
+        <v>200</v>
+      </c>
+      <c r="B32">
+        <v>150</v>
+      </c>
+      <c r="C32">
+        <v>100</v>
+      </c>
+      <c r="D32">
+        <v>400</v>
+      </c>
+      <c r="E32">
+        <v>200</v>
+      </c>
+      <c r="F32">
+        <v>100</v>
+      </c>
+      <c r="G32">
+        <v>400</v>
+      </c>
+      <c r="H32">
+        <v>475.01426350000003</v>
+      </c>
+      <c r="I32">
+        <v>99.280000000000001</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33">
+        <v>200</v>
+      </c>
+      <c r="B33">
+        <v>150</v>
+      </c>
+      <c r="C33">
+        <v>100</v>
+      </c>
+      <c r="D33">
+        <v>400</v>
+      </c>
+      <c r="E33">
+        <v>200</v>
+      </c>
+      <c r="F33">
+        <v>100</v>
+      </c>
+      <c r="G33">
+        <v>400</v>
+      </c>
+      <c r="H33">
+        <v>370.40682750000002</v>
+      </c>
+      <c r="I33">
+        <v>99.460000000000008</v>
       </c>
     </row>
   </sheetData>
